--- a/classification/droptc/message/neo-bert/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/70681460/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['ParamViolation', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 1]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['CommunicationIssue', 'SoftwareFault']</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal', 'CommunicationIssue']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/70681460/prediction.xlsx
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ParamViolation', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['CommunicationIssue']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
